--- a/config_12.01/game_module_config.xlsx
+++ b/config_12.01/game_module_config.xlsx
@@ -4391,7 +4391,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F289" sqref="F289"/>
+      <selection pane="bottomRight" activeCell="G265" sqref="G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11116,13 +11116,13 @@
         <v>787</v>
       </c>
       <c r="E265" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" s="18" t="s">
         <v>645</v>
